--- a/resources/income_example.xlsx
+++ b/resources/income_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyanshi/OneDrive/personal/learn/financial_statetment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46aefa70b467855c/personal_projects/financial-modeling/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3324F05-9DD1-0942-B247-713910DC2310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_DEE6C5C305A4230A5B8B2BD8595EC62455ABE25C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2CEA5CA-167F-E14F-8ACD-3D6F2870552E}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="3780" windowWidth="30140" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="1500" windowWidth="30140" windowHeight="20080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="REVENUE" localSheetId="2">'Income Statement (Data Show (2)'!$5:$5</definedName>
     <definedName name="REVENUE">'Income Statement (Data Shown)'!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1314,7 +1314,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
